--- a/Study 3/Shocks/GCAM/CP_EI - 2055.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2055.xlsx
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.0124170872161693</v>
+        <v>0.01241708721616929</v>
       </c>
     </row>
     <row r="3">
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.3555673075582198</v>
+        <v>0.3555673075582197</v>
       </c>
     </row>
     <row r="7">
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.1634002577425907</v>
+        <v>0.1634002577425906</v>
       </c>
     </row>
     <row r="19">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.2303347229248908</v>
+        <v>0.2303347229248907</v>
       </c>
     </row>
     <row r="23">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.0005413978917453709</v>
+        <v>0.0005413978917453708</v>
       </c>
     </row>
     <row r="27">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.0009561581862863069</v>
+        <v>0.0009561581862863067</v>
       </c>
     </row>
     <row r="31">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.09078958880392764</v>
+        <v>0.09078958880392761</v>
       </c>
     </row>
     <row r="39">
